--- a/ITE4116M/Assets/_Excel/level.xlsx
+++ b/ITE4116M/Assets/_Excel/level.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwitstudent\Documents\GitHub\FYP\ITE4116M\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2763BB-5C9D-4695-95F1-AFB125A8D684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C65E74-A5B9-43AF-BCF2-1F707561D3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,40 +47,57 @@
     <t>Pos</t>
   </si>
   <si>
-    <t>关卡名称</t>
-  </si>
-  <si>
-    <t>敌人Id的数组</t>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>10001=10001</t>
+  </si>
+  <si>
+    <t>0,0,0=0,0,1</t>
+  </si>
+  <si>
+    <t>10001=10002=10003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -13,0,1=-10,0,1=-16,0,1	</t>
   </si>
   <si>
     <t>所有怪物的位置</t>
-  </si>
-  <si>
-    <t>0,0,0</t>
-  </si>
-  <si>
-    <t>10001=10001</t>
-  </si>
-  <si>
-    <t>0,0,0=0,0,1</t>
-  </si>
-  <si>
-    <t>10001=10002=10003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -13,0,1=-10,0,1=-16,0,1	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人Id的陣列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>關卡名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,16 +123,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,10 +443,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
@@ -447,14 +470,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -468,7 +491,7 @@
         <v>10001</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -479,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -493,13 +516,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -511,8 +535,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -524,8 +549,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/ITE4116M/Assets/_Excel/level.xlsx
+++ b/ITE4116M/Assets/_Excel/level.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C65E74-A5B9-43AF-BCF2-1F707561D3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F169B537-5852-42B4-BA7F-DA8E902550F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -47,19 +47,10 @@
     <t>Pos</t>
   </si>
   <si>
-    <t>0,0,0</t>
-  </si>
-  <si>
     <t>10001=10001</t>
   </si>
   <si>
-    <t>0,0,0=0,0,1</t>
-  </si>
-  <si>
     <t>10001=10002=10003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -13,0,1=-10,0,1=-16,0,1	</t>
   </si>
   <si>
     <t>所有怪物的位置</t>
@@ -71,6 +62,18 @@
   </si>
   <si>
     <t>關卡名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15,1,1=-11,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -13,1,1=-10,1,1=-16,1,1	</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,6 +138,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -471,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -490,8 +496,8 @@
       <c r="C3" s="1">
         <v>10001</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -502,10 +508,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -516,10 +522,24 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10005</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
